--- a/menu.xlsx
+++ b/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Asesh\Projects\Yumyard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3963B52C-119B-46D3-B2E7-FC40960BDB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7D97EA-68BD-4537-89F3-8BF8225D7936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11208" xr2:uid="{53223D51-C83D-4267-9B60-8D9313E94991}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="111">
   <si>
     <t>Category</t>
   </si>
@@ -338,6 +338,21 @@
   </si>
   <si>
     <t>Loaded Nachos(Buff/Chi)</t>
+  </si>
+  <si>
+    <t>Dumplings/Momo.webp</t>
+  </si>
+  <si>
+    <t>Crispy Sides/Sausage and fries.jpg</t>
+  </si>
+  <si>
+    <t>Crispy Sides/Mustang aloo.jpg</t>
+  </si>
+  <si>
+    <t>Crispy Sides/Nachos with salsa.jpg</t>
+  </si>
+  <si>
+    <t>Crispy Sides/Loaded Nachos.jpg</t>
   </si>
 </sst>
 </file>
@@ -878,7 +893,7 @@
     <xf numFmtId="0" fontId="16" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1259,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2560F0B3-E5B0-41BE-A824-AA1A4500BDBA}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1541,7 +1556,9 @@
       <c r="D16" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -1723,6 +1740,9 @@
       <c r="D27" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="E27" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
@@ -1734,6 +1754,9 @@
       <c r="D28" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="E28" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
@@ -1745,6 +1768,9 @@
       <c r="D29" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="E29" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -1755,6 +1781,9 @@
       </c>
       <c r="D30" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/menu.xlsx
+++ b/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Asesh\Projects\Yumyard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7D97EA-68BD-4537-89F3-8BF8225D7936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AB6F3F-5876-491F-850A-73A9D1444D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11208" xr2:uid="{53223D51-C83D-4267-9B60-8D9313E94991}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
   <si>
     <t>Category</t>
   </si>
@@ -43,54 +43,33 @@
     <t>Orange Chicken</t>
   </si>
   <si>
-    <t>Signature bowl served with rice.</t>
-  </si>
-  <si>
     <t>Rs. 420</t>
   </si>
   <si>
     <t>Kung Pao Chicken</t>
   </si>
   <si>
-    <t>Sichuan-inspired dish with peanuts and chili peppers.</t>
-  </si>
-  <si>
     <t>Bang Bang Chicken</t>
   </si>
   <si>
-    <t>Crispy chicken with spicy sauce.</t>
-  </si>
-  <si>
     <t>Rs. 440</t>
   </si>
   <si>
-    <t>Grilled chicken glazed in teriyaki sauce.</t>
-  </si>
-  <si>
     <t>Rs. 390</t>
   </si>
   <si>
     <t>Mapo Tofu</t>
   </si>
   <si>
-    <t>Spicy tofu dish with Sichuan peppercorn.</t>
-  </si>
-  <si>
     <t>Rs. 360</t>
   </si>
   <si>
     <t>Pad Kra Pao</t>
   </si>
   <si>
-    <t>Thai basil stir-fry.</t>
-  </si>
-  <si>
     <t>Rs. 400</t>
   </si>
   <si>
-    <t>Healthy vegetarian bowl with tofu.</t>
-  </si>
-  <si>
     <t>Rs. 350</t>
   </si>
   <si>
@@ -100,15 +79,9 @@
     <t>Lo Mein</t>
   </si>
   <si>
-    <t>Stir-fried noodles. Available in Buff/Chicken/Tofu.</t>
-  </si>
-  <si>
     <t>Rs. 260</t>
   </si>
   <si>
-    <t>Thai stir-fried soy sauce noodles. Available in Buff/Chicken/Tofu.</t>
-  </si>
-  <si>
     <t>Rs. 270</t>
   </si>
   <si>
@@ -124,9 +97,6 @@
     <t>Dan Dan Noodles (Soup/Dry)</t>
   </si>
   <si>
-    <t>Sichuan noodles. Available in Buff/Chicken/Tofu.</t>
-  </si>
-  <si>
     <t>Rs. 290/300</t>
   </si>
   <si>
@@ -136,30 +106,18 @@
     <t>Sichuan Buff Salad</t>
   </si>
   <si>
-    <t>Spicy salad with Buff meat.</t>
-  </si>
-  <si>
     <t>Rs. 290</t>
   </si>
   <si>
     <t>Tangy Chicken Salad</t>
   </si>
   <si>
-    <t>Fresh salad with tangy chicken dressing.</t>
-  </si>
-  <si>
     <t>Tangy Thai Tofu Salad</t>
   </si>
   <si>
-    <t>Thai style salad with Tofu.</t>
-  </si>
-  <si>
     <t>Momo with Signature Sauce</t>
   </si>
   <si>
-    <t>Available in Buff or Chicken.</t>
-  </si>
-  <si>
     <t>Rs. 220</t>
   </si>
   <si>
@@ -172,12 +130,6 @@
     <t>Fried Wonton</t>
   </si>
   <si>
-    <t>Crispy fried wontons. Available in Buff or Chicken.</t>
-  </si>
-  <si>
-    <t>Rs. 200</t>
-  </si>
-  <si>
     <t>Hot Bites</t>
   </si>
   <si>
@@ -353,6 +305,57 @@
   </si>
   <si>
     <t>Crispy Sides/Loaded Nachos.jpg</t>
+  </si>
+  <si>
+    <t>Crispy bites tossed in a sweet, citrusy orange glaze.</t>
+  </si>
+  <si>
+    <t>Spicy Sichuan-style stir-fry with chilies and roasted flavors.</t>
+  </si>
+  <si>
+    <t>Crunchy chicken coated in a creamy, sweet-spicy sauce.</t>
+  </si>
+  <si>
+    <t>Smoky BBQ flavors balanced with a touch of honey sweetness.</t>
+  </si>
+  <si>
+    <t>Classic Sichuan tofu in a spicy, savory chili-bean sauce.</t>
+  </si>
+  <si>
+    <t>Thai basil stir-fry with garlic, chilies, and bold umami notes.</t>
+  </si>
+  <si>
+    <t>Crispy tofu glazed in a nutty, mildly sweet sesame sauce.</t>
+  </si>
+  <si>
+    <t>Soft noodles stir-fried with savory soy-based sauce</t>
+  </si>
+  <si>
+    <t>Spicy Thai-style flat noodles with basil and chilies.</t>
+  </si>
+  <si>
+    <t>Sichuan classic with chili oil, sesame, and rich umami.</t>
+  </si>
+  <si>
+    <t>Spicy, tangy salad with Sichuan-inspired flavors.</t>
+  </si>
+  <si>
+    <t>Juicy chicken with a bright, zesty dressing.</t>
+  </si>
+  <si>
+    <t>Refreshing tofu salad with Thai-style sour-sweet notes.</t>
+  </si>
+  <si>
+    <t>Steamed dumplings bursting with flavor.</t>
+  </si>
+  <si>
+    <t>Soft wontons paired with savoury sauce.</t>
+  </si>
+  <si>
+    <t>Crispy golden wontons, crunchy and satisfying.</t>
+  </si>
+  <si>
+    <t>Juicy, savory sausages with crispy, golden French-fried potatoes</t>
   </si>
 </sst>
 </file>
@@ -1274,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2560F0B3-E5B0-41BE-A824-AA1A4500BDBA}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1313,13 +1316,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1327,16 +1330,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1344,16 +1347,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1361,16 +1364,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1378,16 +1381,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1395,16 +1398,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1412,378 +1415,381 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/menu.xlsx
+++ b/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Asesh\Projects\Yumyard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AB6F3F-5876-491F-850A-73A9D1444D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330703C8-6659-42B3-9494-F9FF6BCDAE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11208" xr2:uid="{53223D51-C83D-4267-9B60-8D9313E94991}"/>
   </bookViews>
